--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_17 21.动态内存管理.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_17 21.动态内存管理.xlsx
@@ -379,6 +379,234 @@
         <a:xfrm>
           <a:off x="9620250" y="15259050"/>
           <a:ext cx="5371429" cy="8666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380064</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>18661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="24850725"/>
+          <a:ext cx="7485714" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485265</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>28039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="25231725"/>
+          <a:ext cx="4076190" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656325</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>94564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="30784800"/>
+          <a:ext cx="7200000" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>646286</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>37634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="31632525"/>
+          <a:ext cx="11314286" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>522787</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>75927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="38014275"/>
+          <a:ext cx="8704762" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599611</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>142568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="35404425"/>
+          <a:ext cx="3714286" cy="2457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="AA117" sqref="AA117"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="Y215" sqref="Y215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_17 21.动态内存管理.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_17 21.动态内存管理.xlsx
@@ -607,6 +607,82 @@
         <a:xfrm>
           <a:off x="9229725" y="35404425"/>
           <a:ext cx="3714286" cy="2457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570970</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>56212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="40900350"/>
+          <a:ext cx="4238095" cy="7504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599404</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>56936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="43434000"/>
+          <a:ext cx="5371429" cy="1714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="Y215" sqref="Y215"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="U273" sqref="U273:U274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
